--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:15:56-04:00</t>
+    <t>2024-04-30T11:57:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:57:33-04:00</t>
+    <t>2024-04-30T13:37:40-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -7,16 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from NullFlavor" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from valueset-data-ab" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from Vaccine Gender" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:37:40-04:00</t>
+    <t>2024-04-30T19:45:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A value set that groups detailed genders from SNOMED CT and LOINC into broader categories (male, female, transgender, other) for use in vaccine predictions.</t>
+    <t>Value set for gender categories relevant to vaccination data.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,82 +93,37 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>446151000124109</t>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>transgender</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>446141000124107</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>407376001</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>407377005</t>
-  </si>
-  <si>
-    <t>33791000087105</t>
-  </si>
-  <si>
-    <t>446131000124102</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>LA22878-5</t>
-  </si>
-  <si>
-    <t>LA22879-3</t>
-  </si>
-  <si>
-    <t>LA22880-1</t>
-  </si>
-  <si>
-    <t>LA22881-9</t>
-  </si>
-  <si>
-    <t>LA22882-7</t>
-  </si>
-  <si>
-    <t>LA46-8</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>LA20384-6</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>OTH</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/v3/NullFlavor</t>
-  </si>
-  <si>
-    <t>asked-declined</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/valueset-data-absent-reason</t>
+    <t>http://fhirfli.dev/fhir/ig/pythia/CodeSystem/vaccine-gender</t>
   </si>
 </sst>
 </file>
@@ -428,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -475,242 +427,23 @@
         <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>VaccineGender</t>
+    <t>VaccineGenderVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:45:10-04:00</t>
+    <t>2024-04-30T22:06:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://fhirfli.dev/fhir/ig/pythia/CodeSystem/vaccine-gender</t>
+    <t>http://fhirfli.dev/fhir/ig/pythia/CodeSystem/VaccineGender</t>
   </si>
 </sst>
 </file>

--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T22:06:35-04:00</t>
+    <t>2024-05-01T10:29:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/output/ValueSet-vaccine-gender.xlsx
+++ b/pythia_ig/output/ValueSet-vaccine-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T10:29:48-04:00</t>
+    <t>2024-05-06T15:25:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
